--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>334587.793013054</v>
+        <v>329966.3921504933</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.332151809111349</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.09074280866704</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="F2" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03641654712531528</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,43 +752,43 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7.12715935579235</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="H4" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>8.091688641907758</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6.295735261986037</v>
       </c>
       <c r="D5" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="E5" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.295735261986036</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0.03641654712531528</v>
@@ -974,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="C6" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="F6" t="n">
-        <v>8.091688641907758</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.127159355792352</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.127159355792352</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.091688641907758</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7.127159355792352</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>16.04668504368034</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D8" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="E8" t="n">
-        <v>18.21830727030011</v>
+        <v>9.72841547677697</v>
       </c>
       <c r="F8" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
+        <v>16.04668504368034</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>18.21830727030011</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>217.3572718387544</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>64.17846723318884</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>54.24885151651343</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>166.3322056390895</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>217.3589817716388</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>95.72727190979356</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>41.34546638575321</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>227.2255692716399</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>176.6007114761746</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>300.2323439066454</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.18779416180743</v>
+        <v>92.18779416180689</v>
       </c>
       <c r="H18" t="n">
         <v>43.90453113913449</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.32136466518995</v>
+        <v>63.32136466519054</v>
       </c>
       <c r="T18" t="n">
         <v>136.7309641056443</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>135.4257135290112</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>164.1972685018135</v>
       </c>
       <c r="G19" t="n">
         <v>163.8185422817731</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>101.1316211758533</v>
       </c>
       <c r="Y20" t="n">
-        <v>80.69834806689111</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>47.6740954450446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>65.93169399229406</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>211.4378029800877</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.2181210380436</v>
       </c>
       <c r="H23" t="n">
-        <v>273.6129781386308</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.98143350637423</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6218368446822</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>55.7576784272459</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6624822652158</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.1929123307954</v>
       </c>
       <c r="T25" t="n">
-        <v>207.2888224800706</v>
+        <v>236.9241239377921</v>
       </c>
       <c r="U25" t="n">
         <v>277.3317721377809</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>74.3426382144886</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2560,7 +2560,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>273.6129781386308</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>55.98143350637423</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>107.7646558397713</v>
       </c>
       <c r="W26" t="n">
-        <v>188.3734776596138</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>14.12253997363236</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.0727098693135</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4.665816640396777</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.1929123307954</v>
+        <v>126.3415899855776</v>
       </c>
       <c r="T28" t="n">
         <v>236.9241239377921</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>279.2049022834856</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>55.98143350637423</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6051562496797</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>95.51919715491971</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2964,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6624822652158</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.0727098693135</v>
       </c>
       <c r="I31" t="n">
         <v>70.74557443640489</v>
@@ -3000,16 +3000,16 @@
         <v>4.665816640396777</v>
       </c>
       <c r="S31" t="n">
-        <v>152.1929123307954</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.9241239377921</v>
       </c>
       <c r="U31" t="n">
         <v>277.3317721377809</v>
       </c>
       <c r="V31" t="n">
-        <v>88.3260343006517</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>9.561764983047164</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>16.95727705911491</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3043,10 +3043,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2181210380436</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>273.6129781386308</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6218368446822</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>101.9739710043845</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.6818944932623</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>126.3415899855776</v>
+        <v>152.1929123307954</v>
       </c>
       <c r="T34" t="n">
         <v>236.9241239377921</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>338.1776134644218</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6051562496797</v>
       </c>
       <c r="V35" t="n">
-        <v>92.58929319849796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.6624822652158</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.0727098693135</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>70.74557443640489</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.665816640396777</v>
       </c>
       <c r="S37" t="n">
-        <v>126.3415899855776</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.9241239377921</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3317721377809</v>
+        <v>39.09601125740281</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.2181210380436</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>273.6129781386308</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>55.98143350637423</v>
       </c>
       <c r="T38" t="n">
         <v>209.6218368446822</v>
@@ -3562,13 +3562,13 @@
         <v>255.6051562496797</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>214.887850592969</v>
       </c>
       <c r="X38" t="n">
-        <v>55.80667251687233</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3681,7 +3681,7 @@
         <v>134.0727098693135</v>
       </c>
       <c r="I40" t="n">
-        <v>70.74557443640489</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>152.1929123307954</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.9241239377921</v>
       </c>
       <c r="U40" t="n">
-        <v>147.5454081006699</v>
+        <v>194.9244123074876</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>352.291985074113</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>98.65658300350411</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6051562496797</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>87.00064552264709</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.6624822652158</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.0727098693135</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>70.74557443640489</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.665816640396777</v>
       </c>
       <c r="S43" t="n">
-        <v>152.1929123307954</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.9241239377921</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3317721377809</v>
       </c>
       <c r="V43" t="n">
-        <v>68.09348658740991</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2181210380436</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>265.4285093615546</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6218368446822</v>
       </c>
       <c r="U44" t="n">
         <v>255.6051562496797</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>34.96509894806621</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4143,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6624822652158</v>
+        <v>18.84958399671169</v>
       </c>
       <c r="H46" t="n">
         <v>134.0727098693135</v>
       </c>
       <c r="I46" t="n">
-        <v>70.74557443640489</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.665816640396777</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.1929123307954</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.9241239377921</v>
       </c>
       <c r="U46" t="n">
         <v>277.3317721377809</v>
       </c>
       <c r="V46" t="n">
-        <v>30.72909975477534</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.99418083258042</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="C2" t="n">
-        <v>8.820757961966519</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="D2" t="n">
-        <v>8.820757961966519</v>
+        <v>17.03096522361609</v>
       </c>
       <c r="E2" t="n">
-        <v>8.820757961966519</v>
+        <v>8.85754235300219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6473350913526207</v>
+        <v>0.6841194823882927</v>
       </c>
       <c r="G2" t="n">
         <v>0.6473350913526207</v>
@@ -4330,19 +4330,19 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J2" t="n">
-        <v>7.543110568106792</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="K2" t="n">
-        <v>7.543110568106792</v>
+        <v>5.760064342179165</v>
       </c>
       <c r="L2" t="n">
-        <v>10.11748552709261</v>
+        <v>8.334439301164986</v>
       </c>
       <c r="M2" t="n">
-        <v>18.12825728258129</v>
+        <v>16.34521105665367</v>
       </c>
       <c r="N2" t="n">
-        <v>26.13902903806998</v>
+        <v>24.35598281214235</v>
       </c>
       <c r="O2" t="n">
         <v>32.36675456763103</v>
@@ -4372,10 +4372,10 @@
         <v>32.36675456763103</v>
       </c>
       <c r="X2" t="n">
-        <v>24.68715977578234</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.39029377107673</v>
+        <v>32.36675456763103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="C3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G3" t="n">
         <v>0.6473350913526207</v>
@@ -4421,7 +4421,7 @@
         <v>16.18551978455386</v>
       </c>
       <c r="N3" t="n">
-        <v>19.68574965415786</v>
+        <v>24.19629154004254</v>
       </c>
       <c r="O3" t="n">
         <v>27.69652140964654</v>
@@ -4436,25 +4436,25 @@
         <v>32.36675456763103</v>
       </c>
       <c r="S3" t="n">
-        <v>25.16760370319432</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="T3" t="n">
-        <v>25.16760370319432</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="U3" t="n">
-        <v>16.99418083258042</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="V3" t="n">
-        <v>8.820757961966519</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="W3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="X3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="C4" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="D4" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="E4" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="F4" t="n">
         <v>8.820757961966519</v>
       </c>
       <c r="G4" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="H4" t="n">
         <v>0.6473350913526207</v>
@@ -4491,19 +4491,19 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="K4" t="n">
-        <v>8.334439301164986</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="L4" t="n">
-        <v>8.334439301164986</v>
+        <v>8.658106846841303</v>
       </c>
       <c r="M4" t="n">
-        <v>8.334439301164986</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="N4" t="n">
-        <v>16.34521105665367</v>
+        <v>16.66887860232998</v>
       </c>
       <c r="O4" t="n">
-        <v>24.35598281214235</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="P4" t="n">
         <v>32.36675456763103</v>
@@ -4512,28 +4512,28 @@
         <v>32.36675456763103</v>
       </c>
       <c r="R4" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="S4" t="n">
+        <v>32.36675456763103</v>
+      </c>
+      <c r="T4" t="n">
         <v>24.19333169701714</v>
       </c>
-      <c r="S4" t="n">
-        <v>16.99418083258042</v>
-      </c>
-      <c r="T4" t="n">
-        <v>8.820757961966519</v>
-      </c>
       <c r="U4" t="n">
-        <v>8.820757961966519</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="V4" t="n">
-        <v>8.820757961966519</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="W4" t="n">
-        <v>8.820757961966519</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="X4" t="n">
-        <v>8.820757961966519</v>
+        <v>24.19333169701714</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.820757961966519</v>
+        <v>16.01990882640324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.39029377107673</v>
+        <v>15.21687090046283</v>
       </c>
       <c r="C5" t="n">
-        <v>23.39029377107673</v>
+        <v>8.85754235300219</v>
       </c>
       <c r="D5" t="n">
-        <v>15.21687090046283</v>
+        <v>0.6841194823882927</v>
       </c>
       <c r="E5" t="n">
-        <v>7.043448029848935</v>
+        <v>0.6841194823882927</v>
       </c>
       <c r="F5" t="n">
         <v>0.6841194823882927</v>
@@ -4570,25 +4570,25 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="L5" t="n">
-        <v>3.221710050338442</v>
+        <v>10.11748552709261</v>
       </c>
       <c r="M5" t="n">
-        <v>11.23248180582712</v>
+        <v>18.12825728258129</v>
       </c>
       <c r="N5" t="n">
-        <v>19.2432535613158</v>
+        <v>26.13902903806998</v>
       </c>
       <c r="O5" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P5" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R5" t="n">
         <v>32.36675456763103</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.36675456763103</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="C6" t="n">
-        <v>24.19333169701714</v>
+        <v>7.84648595578934</v>
       </c>
       <c r="D6" t="n">
-        <v>24.19333169701714</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E6" t="n">
-        <v>16.01990882640324</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F6" t="n">
-        <v>7.84648595578934</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G6" t="n">
         <v>0.6473350913526207</v>
@@ -4661,7 +4661,7 @@
         <v>24.19629154004254</v>
       </c>
       <c r="O6" t="n">
-        <v>27.69652140964654</v>
+        <v>32.20706329553123</v>
       </c>
       <c r="P6" t="n">
         <v>32.36675456763103</v>
@@ -4691,7 +4691,7 @@
         <v>32.36675456763103</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.36675456763103</v>
+        <v>24.19333169701714</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="C7" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="D7" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="E7" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="F7" t="n">
-        <v>8.820757961966519</v>
+        <v>0.6473350913526207</v>
       </c>
       <c r="G7" t="n">
         <v>0.6473350913526207</v>
@@ -4725,22 +4725,22 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="J7" t="n">
+        <v>0.6473350913526207</v>
+      </c>
+      <c r="K7" t="n">
         <v>8.658106846841303</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>8.658106846841303</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.658106846841303</v>
+      </c>
+      <c r="N7" t="n">
         <v>16.66887860232998</v>
       </c>
-      <c r="L7" t="n">
-        <v>16.66887860232998</v>
-      </c>
-      <c r="M7" t="n">
-        <v>16.66887860232998</v>
-      </c>
-      <c r="N7" t="n">
-        <v>24.35598281214235</v>
-      </c>
       <c r="O7" t="n">
-        <v>32.36675456763103</v>
+        <v>24.67965035781867</v>
       </c>
       <c r="P7" t="n">
         <v>32.36675456763103</v>
@@ -4761,16 +4761,16 @@
         <v>24.19333169701714</v>
       </c>
       <c r="V7" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="W7" t="n">
-        <v>24.19333169701714</v>
+        <v>16.01990882640324</v>
       </c>
       <c r="X7" t="n">
         <v>16.01990882640324</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.820757961966519</v>
+        <v>7.84648595578934</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.87322908120045</v>
+        <v>48.08880803352017</v>
       </c>
       <c r="C8" t="n">
-        <v>56.66445630980617</v>
+        <v>29.68647745745945</v>
       </c>
       <c r="D8" t="n">
-        <v>38.26212573374545</v>
+        <v>11.28414688139873</v>
       </c>
       <c r="E8" t="n">
-        <v>19.85979515768473</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F8" t="n">
         <v>1.457464581624009</v>
@@ -4846,10 +4846,10 @@
         <v>72.87322908120045</v>
       </c>
       <c r="X8" t="n">
-        <v>72.87322908120045</v>
+        <v>65.19363428935176</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.87322908120045</v>
+        <v>63.89676828464615</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.457464581624009</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="C9" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="D9" t="n">
         <v>1.457464581624009</v>
@@ -4895,10 +4895,10 @@
         <v>37.4042989454709</v>
       </c>
       <c r="N9" t="n">
-        <v>55.44042314306801</v>
+        <v>46.70753313916134</v>
       </c>
       <c r="O9" t="n">
-        <v>71.69888962564613</v>
+        <v>62.96599962173947</v>
       </c>
       <c r="P9" t="n">
         <v>72.87322908120045</v>
@@ -4916,19 +4916,19 @@
         <v>54.47089850513973</v>
       </c>
       <c r="U9" t="n">
-        <v>38.26212573374545</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="V9" t="n">
-        <v>19.85979515768473</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="W9" t="n">
-        <v>1.457464581624009</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="X9" t="n">
-        <v>1.457464581624009</v>
+        <v>54.47089850513973</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.457464581624009</v>
+        <v>54.47089850513973</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="C10" t="n">
-        <v>38.26212573374545</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="D10" t="n">
         <v>19.85979515768473</v>
@@ -4962,52 +4962,52 @@
         <v>1.457464581624009</v>
       </c>
       <c r="J10" t="n">
-        <v>1.457464581624009</v>
+        <v>19.49358877922112</v>
       </c>
       <c r="K10" t="n">
-        <v>19.49358877922112</v>
+        <v>37.52971297681823</v>
       </c>
       <c r="L10" t="n">
         <v>37.52971297681823</v>
       </c>
       <c r="M10" t="n">
-        <v>55.56583717441534</v>
+        <v>37.52971297681823</v>
       </c>
       <c r="N10" t="n">
-        <v>56.16091176222402</v>
+        <v>54.83710488360334</v>
       </c>
       <c r="O10" t="n">
-        <v>56.16091176222402</v>
+        <v>54.83710488360334</v>
       </c>
       <c r="P10" t="n">
-        <v>56.16091176222402</v>
+        <v>54.83710488360334</v>
       </c>
       <c r="Q10" t="n">
         <v>72.87322908120045</v>
       </c>
       <c r="R10" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="S10" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="T10" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="V10" t="n">
-        <v>54.47089850513973</v>
+        <v>56.66445630980617</v>
       </c>
       <c r="W10" t="n">
-        <v>54.47089850513973</v>
+        <v>38.26212573374545</v>
       </c>
       <c r="X10" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="Y10" t="n">
-        <v>54.47089850513973</v>
+        <v>19.85979515768473</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.2519252281125</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="C11" t="n">
-        <v>316.2519252281125</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D11" t="n">
-        <v>316.2519252281125</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E11" t="n">
-        <v>316.2519252281125</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F11" t="n">
-        <v>316.2519252281125</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250295</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303101</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5059,7 +5059,7 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P11" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090909</v>
       </c>
       <c r="Q11" t="n">
         <v>1740.92751718922</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1749.253343642254</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T11" t="n">
-        <v>1749.253343642254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U11" t="n">
-        <v>1749.253343642254</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="V11" t="n">
-        <v>1749.253343642254</v>
+        <v>1342.315579046524</v>
       </c>
       <c r="W11" t="n">
-        <v>1352.861993942601</v>
+        <v>1277.488844467545</v>
       </c>
       <c r="X11" t="n">
-        <v>941.1419951103478</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="Y11" t="n">
-        <v>535.8047250652381</v>
+        <v>865.7688456352926</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004318</v>
       </c>
       <c r="H12" t="n">
         <v>36.27616607839228</v>
@@ -5120,52 +5120,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>267.1899758967556</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>443.8288267274046</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>653.1035252084196</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>983.0012886846976</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1178.044955672184</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1331.443070518537</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738641</v>
+        <v>1780.360625738642</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1088.137999643809</v>
+        <v>412.6221814180445</v>
       </c>
       <c r="C13" t="n">
-        <v>916.1654365227246</v>
+        <v>412.6221814180445</v>
       </c>
       <c r="D13" t="n">
-        <v>752.8486636494953</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="E13" t="n">
-        <v>586.6404578023488</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G13" t="n">
         <v>249.3054085448152</v>
@@ -5202,49 +5202,49 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>665.4738072482864</v>
+        <v>718.9944949477218</v>
       </c>
       <c r="M13" t="n">
-        <v>1055.701197344776</v>
+        <v>1167.912050167826</v>
       </c>
       <c r="N13" t="n">
-        <v>1152.699903436724</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T13" t="n">
-        <v>1802.007452933977</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.007452933977</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V13" t="n">
-        <v>1802.007452933977</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W13" t="n">
-        <v>1747.210633220327</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X13" t="n">
-        <v>1504.646736666132</v>
+        <v>412.6221814180445</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.303968355874</v>
+        <v>412.6221814180445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.808303919614</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.907573932914</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.907573932914</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E14" t="n">
-        <v>960.9306340807717</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F14" t="n">
-        <v>535.8064522701719</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839228</v>
@@ -5278,16 +5278,16 @@
         <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.2963411149083</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250302</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303106</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5317,13 +5317,13 @@
         <v>1813.808303919614</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.808303919614</v>
+        <v>1717.114089869317</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.808303919614</v>
+        <v>1305.394091037065</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.808303919614</v>
+        <v>1305.394091037065</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
         <v>80.62417733004328</v>
@@ -5354,55 +5354,55 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>274.4772572558128</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>451.1161080864617</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>660.3908065674767</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
-        <v>877.5457883997929</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1072.589455387279</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1225.987570233632</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453737</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.3128823187204</v>
+        <v>78.03926343773895</v>
       </c>
       <c r="C16" t="n">
-        <v>339.3128823187204</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D16" t="n">
-        <v>339.3128823187204</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E16" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F16" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G16" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H16" t="n">
         <v>36.27616607839228</v>
@@ -5442,46 +5442,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>912.7564163623085</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M16" t="n">
-        <v>1055.701197344776</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N16" t="n">
-        <v>1152.699903436724</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O16" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1405.539232097734</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1125.397530580239</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V16" t="n">
-        <v>843.686063188268</v>
+        <v>1011.964300841744</v>
       </c>
       <c r="W16" t="n">
-        <v>568.833659360781</v>
+        <v>737.1118970142575</v>
       </c>
       <c r="X16" t="n">
-        <v>339.3128823187204</v>
+        <v>494.5480004600626</v>
       </c>
       <c r="Y16" t="n">
-        <v>339.3128823187204</v>
+        <v>268.2052321498046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1749.253343642254</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="C17" t="n">
-        <v>1322.352613655554</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D17" t="n">
-        <v>1322.352613655554</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E17" t="n">
-        <v>1143.968056608913</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F17" t="n">
-        <v>718.8438747983129</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149079</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303098</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103475</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923652</v>
+        <v>1131.245262923651</v>
       </c>
       <c r="O17" t="n">
         <v>1382.739131455147</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642254</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1749.253343642254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U17" t="n">
-        <v>1749.253343642254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="V17" t="n">
-        <v>1749.253343642254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="W17" t="n">
-        <v>1749.253343642254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="X17" t="n">
-        <v>1749.253343642254</v>
+        <v>1188.810720590631</v>
       </c>
       <c r="Y17" t="n">
-        <v>1749.253343642254</v>
+        <v>885.5457267455345</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760276</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
         <v>80.62417733004328</v>
@@ -5591,55 +5591,55 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5526221910818</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>389.3212477623218</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>565.9600985929708</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645392</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.474417479231</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.959086552029</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="C19" t="n">
-        <v>916.1654365227246</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="D19" t="n">
-        <v>752.8486636494953</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="E19" t="n">
-        <v>586.6404578023488</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="F19" t="n">
         <v>414.7786835769092</v>
@@ -5679,46 +5679,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>654.3880318200453</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N19" t="n">
-        <v>790.0754760389441</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O19" t="n">
-        <v>1238.993031259049</v>
+        <v>1556.72602525198</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T19" t="n">
-        <v>1802.007452933977</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U19" t="n">
-        <v>1521.865751416482</v>
+        <v>1137.198381565876</v>
       </c>
       <c r="V19" t="n">
-        <v>1521.865751416482</v>
+        <v>855.4869141739048</v>
       </c>
       <c r="W19" t="n">
-        <v>1521.865751416482</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="X19" t="n">
-        <v>1279.301854862287</v>
+        <v>580.6345103464178</v>
       </c>
       <c r="Y19" t="n">
-        <v>1052.959086552029</v>
+        <v>580.6345103464178</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1312.446456732234</v>
+        <v>886.469516880092</v>
       </c>
       <c r="C20" t="n">
-        <v>885.5457267455345</v>
+        <v>459.568786893392</v>
       </c>
       <c r="D20" t="n">
-        <v>462.2531059305347</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E20" t="n">
         <v>36.27616607839228</v>
@@ -5749,19 +5749,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K20" t="n">
         <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5794,10 +5794,10 @@
         <v>1813.808303919614</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.808303919614</v>
+        <v>1711.655151216732</v>
       </c>
       <c r="Y20" t="n">
-        <v>1732.294821023764</v>
+        <v>1306.317881171622</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968659</v>
+        <v>51.80960935527475</v>
       </c>
       <c r="J21" t="n">
-        <v>433.5238427951067</v>
+        <v>410.0665369506949</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2924683663467</v>
+        <v>535.8351625219349</v>
       </c>
       <c r="L21" t="n">
-        <v>735.9313191969957</v>
+        <v>712.4740133525838</v>
       </c>
       <c r="M21" t="n">
-        <v>945.2060176780108</v>
+        <v>921.7487118335989</v>
       </c>
       <c r="N21" t="n">
-        <v>1162.360999510327</v>
+        <v>1138.903693665915</v>
       </c>
       <c r="O21" t="n">
-        <v>1357.404666497814</v>
+        <v>1333.947360653402</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1487.345475499754</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919613</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1088.137999643809</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C22" t="n">
-        <v>916.1654365227246</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D22" t="n">
-        <v>752.8486636494953</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E22" t="n">
-        <v>586.6404578023488</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F22" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939832</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>834.8346997140877</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M22" t="n">
-        <v>932.8880472917069</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.886753383655</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259049</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1813.808303919614</v>
+        <v>1753.851800969285</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919614</v>
+        <v>1513.860966800883</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.808303919614</v>
+        <v>1233.719265283387</v>
       </c>
       <c r="V22" t="n">
-        <v>1813.808303919614</v>
+        <v>952.0077978914162</v>
       </c>
       <c r="W22" t="n">
-        <v>1747.210633220327</v>
+        <v>677.1553940639292</v>
       </c>
       <c r="X22" t="n">
-        <v>1504.646736666132</v>
+        <v>434.5914975097343</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.303968355874</v>
+        <v>208.2487291994763</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1149.625620112692</v>
+        <v>1085.969654840298</v>
       </c>
       <c r="C23" t="n">
-        <v>1149.625620112692</v>
+        <v>1085.969654840298</v>
       </c>
       <c r="D23" t="n">
-        <v>1149.625620112692</v>
+        <v>1085.969654840298</v>
       </c>
       <c r="E23" t="n">
-        <v>723.6486802605498</v>
+        <v>872.3961164765731</v>
       </c>
       <c r="F23" t="n">
-        <v>723.6486802605498</v>
+        <v>447.2719346659733</v>
       </c>
       <c r="G23" t="n">
-        <v>321.4081539594957</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="H23" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I23" t="n">
-        <v>90.12281232189594</v>
+        <v>90.12281232189571</v>
       </c>
       <c r="J23" t="n">
-        <v>235.5632800350505</v>
+        <v>235.5632800350506</v>
       </c>
       <c r="K23" t="n">
-        <v>461.7858488001439</v>
+        <v>461.7858488001442</v>
       </c>
       <c r="L23" t="n">
-        <v>748.4314856230537</v>
+        <v>748.431485623054</v>
       </c>
       <c r="M23" t="n">
-        <v>1072.526270874502</v>
+        <v>1072.526270874503</v>
       </c>
       <c r="N23" t="n">
-        <v>1402.614992443546</v>
+        <v>1402.614992443547</v>
       </c>
       <c r="O23" t="n">
-        <v>1712.141432054348</v>
+        <v>1712.141432054347</v>
       </c>
       <c r="P23" t="n">
         <v>1970.708674475314</v>
@@ -6013,28 +6013,28 @@
         <v>2157.053833914472</v>
       </c>
       <c r="R23" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="S23" t="n">
-        <v>2195.023515714264</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="T23" t="n">
-        <v>1983.284286578221</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="U23" t="n">
-        <v>1983.284286578221</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="V23" t="n">
-        <v>1625.794871704471</v>
+        <v>1894.081003372204</v>
       </c>
       <c r="W23" t="n">
-        <v>1569.473984404222</v>
+        <v>1497.689653672551</v>
       </c>
       <c r="X23" t="n">
-        <v>1569.473984404222</v>
+        <v>1085.969654840298</v>
       </c>
       <c r="Y23" t="n">
-        <v>1569.473984404222</v>
+        <v>1085.969654840298</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>180.4944207143736</v>
       </c>
       <c r="G24" t="n">
-        <v>87.56346473811101</v>
+        <v>87.56346473811099</v>
       </c>
       <c r="H24" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I24" t="n">
-        <v>66.9097955130847</v>
+        <v>90.36710135749652</v>
       </c>
       <c r="J24" t="n">
-        <v>332.74109027024</v>
+        <v>227.2855899853342</v>
       </c>
       <c r="K24" t="n">
-        <v>488.2679067343502</v>
+        <v>382.8124064494443</v>
       </c>
       <c r="L24" t="n">
-        <v>704.9203176093139</v>
+        <v>599.464817324408</v>
       </c>
       <c r="M24" t="n">
-        <v>960.8889533443449</v>
+        <v>855.4334530594391</v>
       </c>
       <c r="N24" t="n">
-        <v>1225.973722007644</v>
+        <v>1120.518221722738</v>
       </c>
       <c r="O24" t="n">
-        <v>1464.863780101563</v>
+        <v>1359.408279816658</v>
       </c>
       <c r="P24" t="n">
-        <v>1653.452489376951</v>
+        <v>1547.996989092045</v>
       </c>
       <c r="Q24" t="n">
-        <v>1771.407177788377</v>
+        <v>1665.951677503471</v>
       </c>
       <c r="R24" t="n">
         <v>1816.296770038379</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4181613107344</v>
+        <v>720.3895902103222</v>
       </c>
       <c r="C25" t="n">
-        <v>546.4181613107344</v>
+        <v>548.4170270892382</v>
       </c>
       <c r="D25" t="n">
-        <v>383.1013884375051</v>
+        <v>548.4170270892382</v>
       </c>
       <c r="E25" t="n">
-        <v>216.8931825903587</v>
+        <v>382.2088212420918</v>
       </c>
       <c r="F25" t="n">
-        <v>45.0314083649191</v>
+        <v>210.3470470166522</v>
       </c>
       <c r="G25" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="H25" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="J25" t="n">
         <v>167.7504552094792</v>
@@ -6153,13 +6153,13 @@
         <v>501.4672352720399</v>
       </c>
       <c r="L25" t="n">
-        <v>616.9329079692594</v>
+        <v>916.3855179804744</v>
       </c>
       <c r="M25" t="n">
-        <v>1152.740221799173</v>
+        <v>1038.657351347566</v>
       </c>
       <c r="N25" t="n">
-        <v>1273.381552219496</v>
+        <v>1159.298681767889</v>
       </c>
       <c r="O25" t="n">
         <v>1645.131924130308</v>
@@ -6168,31 +6168,31 @@
         <v>2047.315238987252</v>
       </c>
       <c r="Q25" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="R25" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="S25" t="n">
-        <v>2251.570418245955</v>
+        <v>2097.840203770404</v>
       </c>
       <c r="T25" t="n">
-        <v>2042.187769276187</v>
+        <v>1858.522906863543</v>
       </c>
       <c r="U25" t="n">
-        <v>1762.054666106711</v>
+        <v>1578.389803694067</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.34319871474</v>
+        <v>1296.678336302096</v>
       </c>
       <c r="W25" t="n">
-        <v>1205.490794887253</v>
+        <v>1021.825932474609</v>
       </c>
       <c r="X25" t="n">
-        <v>962.926898333058</v>
+        <v>946.7323585205802</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.5841300228001</v>
+        <v>720.3895902103222</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1599.410005608938</v>
+        <v>1746.325880829361</v>
       </c>
       <c r="C26" t="n">
-        <v>1172.509275622238</v>
+        <v>1319.425150842661</v>
       </c>
       <c r="D26" t="n">
-        <v>1172.509275622238</v>
+        <v>896.1325300276613</v>
       </c>
       <c r="E26" t="n">
-        <v>746.5323357700954</v>
+        <v>470.1555901755189</v>
       </c>
       <c r="F26" t="n">
-        <v>321.4081539594956</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="G26" t="n">
-        <v>321.4081539594956</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="H26" t="n">
-        <v>45.03140836491909</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="I26" t="n">
-        <v>90.12281232189571</v>
+        <v>90.12281232189594</v>
       </c>
       <c r="J26" t="n">
-        <v>235.5632800350506</v>
+        <v>235.5632800350505</v>
       </c>
       <c r="K26" t="n">
-        <v>461.7858488001442</v>
+        <v>461.7858488001439</v>
       </c>
       <c r="L26" t="n">
-        <v>748.431485623054</v>
+        <v>748.4314856230537</v>
       </c>
       <c r="M26" t="n">
-        <v>1072.526270874503</v>
+        <v>1072.526270874502</v>
       </c>
       <c r="N26" t="n">
-        <v>1402.614992443547</v>
+        <v>1402.614992443546</v>
       </c>
       <c r="O26" t="n">
-        <v>1712.141432054347</v>
+        <v>1712.141432054348</v>
       </c>
       <c r="P26" t="n">
         <v>1970.708674475314</v>
@@ -6250,28 +6250,28 @@
         <v>2157.053833914472</v>
       </c>
       <c r="R26" t="n">
-        <v>2251.570418245954</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="S26" t="n">
-        <v>2195.023515714263</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="T26" t="n">
-        <v>2195.023515714263</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="U26" t="n">
-        <v>2195.023515714263</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="V26" t="n">
-        <v>2195.023515714263</v>
+        <v>2142.717230529014</v>
       </c>
       <c r="W26" t="n">
-        <v>2004.747275654047</v>
+        <v>1746.325880829361</v>
       </c>
       <c r="X26" t="n">
-        <v>2004.747275654047</v>
+        <v>1746.325880829361</v>
       </c>
       <c r="Y26" t="n">
-        <v>1599.410005608938</v>
+        <v>1746.325880829361</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>180.4944207143736</v>
       </c>
       <c r="G27" t="n">
-        <v>87.56346473811099</v>
+        <v>87.56346473811101</v>
       </c>
       <c r="H27" t="n">
-        <v>45.03140836491909</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="I27" t="n">
-        <v>66.90979551308467</v>
+        <v>90.36710135749652</v>
       </c>
       <c r="J27" t="n">
-        <v>332.74109027024</v>
+        <v>173.9325474299892</v>
       </c>
       <c r="K27" t="n">
-        <v>488.2679067343502</v>
+        <v>329.4593638940994</v>
       </c>
       <c r="L27" t="n">
-        <v>704.9203176093139</v>
+        <v>546.1117747690631</v>
       </c>
       <c r="M27" t="n">
-        <v>960.8889533443449</v>
+        <v>802.0804105040942</v>
       </c>
       <c r="N27" t="n">
         <v>1225.973722007644</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.0403527966795</v>
+        <v>388.8657457114426</v>
       </c>
       <c r="C28" t="n">
-        <v>358.0403527966795</v>
+        <v>216.8931825903587</v>
       </c>
       <c r="D28" t="n">
-        <v>194.7235799234502</v>
+        <v>216.8931825903587</v>
       </c>
       <c r="E28" t="n">
-        <v>194.7235799234502</v>
+        <v>216.8931825903587</v>
       </c>
       <c r="F28" t="n">
-        <v>194.7235799234502</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="G28" t="n">
-        <v>180.4583880308923</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="H28" t="n">
-        <v>45.03140836491909</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03140836491909</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="J28" t="n">
-        <v>167.7504552094792</v>
+        <v>89.82873856125835</v>
       </c>
       <c r="K28" t="n">
-        <v>254.1846261580178</v>
+        <v>176.2629095097969</v>
       </c>
       <c r="L28" t="n">
-        <v>746.0391924464024</v>
+        <v>568.9468166269794</v>
       </c>
       <c r="M28" t="n">
-        <v>1281.846506276315</v>
+        <v>1104.754130456892</v>
       </c>
       <c r="N28" t="n">
-        <v>1800.520759538519</v>
+        <v>1623.428383719096</v>
       </c>
       <c r="O28" t="n">
-        <v>2109.261626081514</v>
+        <v>2109.261626081515</v>
       </c>
       <c r="P28" t="n">
         <v>2198.688736365151</v>
       </c>
       <c r="Q28" t="n">
-        <v>2251.570418245954</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="R28" t="n">
-        <v>2246.857472144543</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="S28" t="n">
-        <v>2093.127257668993</v>
+        <v>2123.952650583755</v>
       </c>
       <c r="T28" t="n">
-        <v>1853.809960762132</v>
+        <v>1884.635353676895</v>
       </c>
       <c r="U28" t="n">
-        <v>1573.676857592656</v>
+        <v>1604.502250507419</v>
       </c>
       <c r="V28" t="n">
-        <v>1291.965390200685</v>
+        <v>1322.790783115448</v>
       </c>
       <c r="W28" t="n">
-        <v>1017.112986373198</v>
+        <v>1047.938379287961</v>
       </c>
       <c r="X28" t="n">
-        <v>774.5490898190031</v>
+        <v>805.3744827337662</v>
       </c>
       <c r="Y28" t="n">
-        <v>548.2063215087452</v>
+        <v>579.0317144235082</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1321.201699018761</v>
+        <v>1176.326122853764</v>
       </c>
       <c r="C29" t="n">
         <v>894.3009690320613</v>
@@ -6448,28 +6448,28 @@
         <v>471.0083482170616</v>
       </c>
       <c r="E29" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="F29" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="G29" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="H29" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I29" t="n">
-        <v>90.12281232189616</v>
+        <v>90.12281232189571</v>
       </c>
       <c r="J29" t="n">
-        <v>235.5632800350511</v>
+        <v>235.5632800350506</v>
       </c>
       <c r="K29" t="n">
-        <v>461.7858488001445</v>
+        <v>461.7858488001442</v>
       </c>
       <c r="L29" t="n">
-        <v>748.4314856230541</v>
+        <v>748.431485623054</v>
       </c>
       <c r="M29" t="n">
         <v>1072.526270874503</v>
@@ -6478,7 +6478,7 @@
         <v>1402.614992443547</v>
       </c>
       <c r="O29" t="n">
-        <v>1712.141432054348</v>
+        <v>1712.141432054347</v>
       </c>
       <c r="P29" t="n">
         <v>1970.708674475314</v>
@@ -6487,28 +6487,28 @@
         <v>2157.053833914472</v>
       </c>
       <c r="R29" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="S29" t="n">
-        <v>2195.023515714264</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="T29" t="n">
-        <v>2195.023515714264</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="U29" t="n">
-        <v>2195.023515714264</v>
+        <v>1993.383391731126</v>
       </c>
       <c r="V29" t="n">
-        <v>1837.534100840513</v>
+        <v>1993.383391731126</v>
       </c>
       <c r="W29" t="n">
-        <v>1741.050063310291</v>
+        <v>1993.383391731126</v>
       </c>
       <c r="X29" t="n">
-        <v>1741.050063310291</v>
+        <v>1581.663392898874</v>
       </c>
       <c r="Y29" t="n">
-        <v>1741.050063310291</v>
+        <v>1176.326122853764</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>180.4944207143736</v>
       </c>
       <c r="G30" t="n">
-        <v>87.56346473811101</v>
+        <v>87.56346473811099</v>
       </c>
       <c r="H30" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I30" t="n">
-        <v>66.9097955130847</v>
+        <v>66.90979551308467</v>
       </c>
       <c r="J30" t="n">
-        <v>227.2855899853342</v>
+        <v>332.74109027024</v>
       </c>
       <c r="K30" t="n">
-        <v>382.8124064494443</v>
+        <v>488.2679067343502</v>
       </c>
       <c r="L30" t="n">
-        <v>599.464817324408</v>
+        <v>704.9203176093139</v>
       </c>
       <c r="M30" t="n">
-        <v>855.4334530594391</v>
+        <v>960.8889533443449</v>
       </c>
       <c r="N30" t="n">
-        <v>1120.518221722738</v>
+        <v>1225.973722007644</v>
       </c>
       <c r="O30" t="n">
-        <v>1359.408279816658</v>
+        <v>1464.863780101563</v>
       </c>
       <c r="P30" t="n">
-        <v>1547.996989092045</v>
+        <v>1653.452489376951</v>
       </c>
       <c r="Q30" t="n">
-        <v>1665.951677503471</v>
+        <v>1771.407177788377</v>
       </c>
       <c r="R30" t="n">
         <v>1816.296770038379</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.8509006302072</v>
+        <v>918.6209558268296</v>
       </c>
       <c r="C31" t="n">
-        <v>617.8783375091232</v>
+        <v>918.6209558268296</v>
       </c>
       <c r="D31" t="n">
-        <v>454.5615646358939</v>
+        <v>755.3041829536003</v>
       </c>
       <c r="E31" t="n">
-        <v>288.3533587887475</v>
+        <v>589.0959771064538</v>
       </c>
       <c r="F31" t="n">
-        <v>116.4915845633079</v>
+        <v>417.2342028810142</v>
       </c>
       <c r="G31" t="n">
-        <v>116.4915845633079</v>
+        <v>251.9185642292811</v>
       </c>
       <c r="H31" t="n">
         <v>116.4915845633079</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="J31" t="n">
-        <v>167.7504552094792</v>
+        <v>121.077794579237</v>
       </c>
       <c r="K31" t="n">
-        <v>501.4672352720399</v>
+        <v>454.7945746417977</v>
       </c>
       <c r="L31" t="n">
-        <v>831.1087997119024</v>
+        <v>946.6491409301823</v>
       </c>
       <c r="M31" t="n">
-        <v>953.3806330789937</v>
+        <v>1482.456454760095</v>
       </c>
       <c r="N31" t="n">
-        <v>1472.054886341198</v>
+        <v>2001.130708022299</v>
       </c>
       <c r="O31" t="n">
-        <v>1957.888128703616</v>
+        <v>2109.261626081514</v>
       </c>
       <c r="P31" t="n">
-        <v>2047.315238987252</v>
+        <v>2198.688736365151</v>
       </c>
       <c r="Q31" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="R31" t="n">
-        <v>2246.857472144544</v>
+        <v>2246.857472144543</v>
       </c>
       <c r="S31" t="n">
-        <v>2093.127257668993</v>
+        <v>2246.857472144543</v>
       </c>
       <c r="T31" t="n">
-        <v>2093.127257668993</v>
+        <v>2007.540175237683</v>
       </c>
       <c r="U31" t="n">
-        <v>1812.994154499517</v>
+        <v>1727.407072068207</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.775938034213</v>
+        <v>1445.695604676236</v>
       </c>
       <c r="W31" t="n">
-        <v>1448.923534206726</v>
+        <v>1170.843200848749</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.359637652531</v>
+        <v>928.279304294554</v>
       </c>
       <c r="Y31" t="n">
-        <v>980.0168693422729</v>
+        <v>918.6209558268296</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2148.566407130415</v>
+        <v>2022.702626423938</v>
       </c>
       <c r="C32" t="n">
-        <v>1721.665677143715</v>
+        <v>1595.801896437238</v>
       </c>
       <c r="D32" t="n">
-        <v>1298.373056328715</v>
+        <v>1172.509275622238</v>
       </c>
       <c r="E32" t="n">
-        <v>872.3961164765731</v>
+        <v>746.5323357700954</v>
       </c>
       <c r="F32" t="n">
-        <v>447.2719346659733</v>
+        <v>321.4081539594957</v>
       </c>
       <c r="G32" t="n">
-        <v>45.0314083649191</v>
+        <v>321.4081539594957</v>
       </c>
       <c r="H32" t="n">
         <v>45.0314083649191</v>
@@ -6730,22 +6730,22 @@
         <v>2251.570418245955</v>
       </c>
       <c r="T32" t="n">
-        <v>2251.570418245955</v>
+        <v>2039.831189109912</v>
       </c>
       <c r="U32" t="n">
-        <v>2251.570418245955</v>
+        <v>2039.831189109912</v>
       </c>
       <c r="V32" t="n">
-        <v>2148.566407130415</v>
+        <v>2039.831189109912</v>
       </c>
       <c r="W32" t="n">
-        <v>2148.566407130415</v>
+        <v>2039.831189109912</v>
       </c>
       <c r="X32" t="n">
-        <v>2148.566407130415</v>
+        <v>2039.831189109912</v>
       </c>
       <c r="Y32" t="n">
-        <v>2148.566407130415</v>
+        <v>2039.831189109912</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>388.8657457114426</v>
+        <v>589.096067208349</v>
       </c>
       <c r="C34" t="n">
-        <v>216.8931825903587</v>
+        <v>417.123504087265</v>
       </c>
       <c r="D34" t="n">
-        <v>216.8931825903587</v>
+        <v>417.123504087265</v>
       </c>
       <c r="E34" t="n">
-        <v>216.8931825903587</v>
+        <v>250.9152982401186</v>
       </c>
       <c r="F34" t="n">
-        <v>45.0314083649191</v>
+        <v>79.053524014679</v>
       </c>
       <c r="G34" t="n">
-        <v>45.0314083649191</v>
+        <v>79.053524014679</v>
       </c>
       <c r="H34" t="n">
-        <v>45.0314083649191</v>
+        <v>79.053524014679</v>
       </c>
       <c r="I34" t="n">
         <v>45.0314083649191</v>
@@ -6861,19 +6861,19 @@
         <v>89.82873856125835</v>
       </c>
       <c r="K34" t="n">
-        <v>176.2629095097969</v>
+        <v>423.545518623819</v>
       </c>
       <c r="L34" t="n">
-        <v>568.9468166269794</v>
+        <v>915.4000849122035</v>
       </c>
       <c r="M34" t="n">
-        <v>1104.754130456892</v>
+        <v>1451.207398742117</v>
       </c>
       <c r="N34" t="n">
-        <v>1623.428383719096</v>
+        <v>1969.88165200432</v>
       </c>
       <c r="O34" t="n">
-        <v>2109.261626081515</v>
+        <v>2078.012570063536</v>
       </c>
       <c r="P34" t="n">
         <v>2198.688736365151</v>
@@ -6885,25 +6885,25 @@
         <v>2251.570418245955</v>
       </c>
       <c r="S34" t="n">
-        <v>2123.952650583755</v>
+        <v>2097.840203770404</v>
       </c>
       <c r="T34" t="n">
-        <v>1884.635353676895</v>
+        <v>1858.522906863543</v>
       </c>
       <c r="U34" t="n">
-        <v>1604.502250507419</v>
+        <v>1578.389803694068</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.790783115448</v>
+        <v>1296.678336302097</v>
       </c>
       <c r="W34" t="n">
-        <v>1047.938379287961</v>
+        <v>1021.82593247461</v>
       </c>
       <c r="X34" t="n">
-        <v>805.3744827337662</v>
+        <v>779.2620359204146</v>
       </c>
       <c r="Y34" t="n">
-        <v>579.0317144235082</v>
+        <v>779.2620359204146</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1746.325880829361</v>
+        <v>1239.502627157723</v>
       </c>
       <c r="C35" t="n">
-        <v>1319.425150842661</v>
+        <v>812.601897171023</v>
       </c>
       <c r="D35" t="n">
-        <v>896.1325300276613</v>
+        <v>471.0083482170616</v>
       </c>
       <c r="E35" t="n">
-        <v>470.1555901755189</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="F35" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="G35" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="H35" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I35" t="n">
         <v>90.12281232189571</v>
       </c>
       <c r="J35" t="n">
-        <v>235.5632800350504</v>
+        <v>235.5632800350506</v>
       </c>
       <c r="K35" t="n">
-        <v>461.7858488001439</v>
+        <v>461.7858488001442</v>
       </c>
       <c r="L35" t="n">
-        <v>748.4314856230537</v>
+        <v>748.431485623054</v>
       </c>
       <c r="M35" t="n">
-        <v>1072.526270874502</v>
+        <v>1072.526270874503</v>
       </c>
       <c r="N35" t="n">
-        <v>1402.614992443546</v>
+        <v>1402.614992443547</v>
       </c>
       <c r="O35" t="n">
         <v>1712.141432054347</v>
@@ -6961,28 +6961,28 @@
         <v>2157.053833914472</v>
       </c>
       <c r="R35" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="S35" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="T35" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="U35" t="n">
-        <v>2251.570418245955</v>
+        <v>1993.383391731126</v>
       </c>
       <c r="V35" t="n">
-        <v>2158.045879661614</v>
+        <v>1635.893976857376</v>
       </c>
       <c r="W35" t="n">
-        <v>2158.045879661614</v>
+        <v>1239.502627157723</v>
       </c>
       <c r="X35" t="n">
-        <v>1746.325880829361</v>
+        <v>1239.502627157723</v>
       </c>
       <c r="Y35" t="n">
-        <v>1746.325880829361</v>
+        <v>1239.502627157723</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>180.4944207143736</v>
       </c>
       <c r="G36" t="n">
-        <v>87.56346473811101</v>
+        <v>87.56346473811099</v>
       </c>
       <c r="H36" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="I36" t="n">
         <v>90.36710135749652</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>388.8657457114426</v>
+        <v>752.4127499796831</v>
       </c>
       <c r="C37" t="n">
-        <v>216.8931825903587</v>
+        <v>752.4127499796831</v>
       </c>
       <c r="D37" t="n">
-        <v>216.8931825903587</v>
+        <v>589.0959771064538</v>
       </c>
       <c r="E37" t="n">
-        <v>216.8931825903587</v>
+        <v>589.0959771064538</v>
       </c>
       <c r="F37" t="n">
-        <v>45.0314083649191</v>
+        <v>417.2342028810142</v>
       </c>
       <c r="G37" t="n">
-        <v>45.0314083649191</v>
+        <v>251.9185642292811</v>
       </c>
       <c r="H37" t="n">
-        <v>45.0314083649191</v>
+        <v>116.4915845633079</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0314083649191</v>
+        <v>45.03140836491909</v>
       </c>
       <c r="J37" t="n">
-        <v>89.82873856125835</v>
+        <v>167.7504552094792</v>
       </c>
       <c r="K37" t="n">
-        <v>176.2629095097969</v>
+        <v>501.4672352720399</v>
       </c>
       <c r="L37" t="n">
-        <v>568.9468166269794</v>
+        <v>993.3218015604244</v>
       </c>
       <c r="M37" t="n">
-        <v>1104.754130456892</v>
+        <v>1529.129115390338</v>
       </c>
       <c r="N37" t="n">
-        <v>1623.428383719096</v>
+        <v>1688.374503448992</v>
       </c>
       <c r="O37" t="n">
-        <v>2109.261626081515</v>
+        <v>1796.505421508207</v>
       </c>
       <c r="P37" t="n">
         <v>2198.688736365151</v>
       </c>
       <c r="Q37" t="n">
-        <v>2251.570418245955</v>
+        <v>2251.570418245954</v>
       </c>
       <c r="R37" t="n">
-        <v>2251.570418245955</v>
+        <v>2246.857472144543</v>
       </c>
       <c r="S37" t="n">
-        <v>2123.952650583755</v>
+        <v>2246.857472144543</v>
       </c>
       <c r="T37" t="n">
-        <v>1884.635353676895</v>
+        <v>2007.540175237683</v>
       </c>
       <c r="U37" t="n">
-        <v>1604.502250507419</v>
+        <v>1968.04925477566</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.790783115448</v>
+        <v>1686.337787383688</v>
       </c>
       <c r="W37" t="n">
-        <v>1047.938379287961</v>
+        <v>1411.485383556201</v>
       </c>
       <c r="X37" t="n">
-        <v>805.3744827337662</v>
+        <v>1168.921487002007</v>
       </c>
       <c r="Y37" t="n">
-        <v>579.0317144235082</v>
+        <v>942.5787186917487</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1725.273786315415</v>
+        <v>1150.54941024725</v>
       </c>
       <c r="C38" t="n">
-        <v>1298.373056328715</v>
+        <v>723.6486802605498</v>
       </c>
       <c r="D38" t="n">
-        <v>1298.373056328715</v>
+        <v>723.6486802605498</v>
       </c>
       <c r="E38" t="n">
-        <v>872.3961164765731</v>
+        <v>723.6486802605498</v>
       </c>
       <c r="F38" t="n">
-        <v>447.2719346659733</v>
+        <v>723.6486802605498</v>
       </c>
       <c r="G38" t="n">
-        <v>45.0314083649191</v>
+        <v>321.4081539594957</v>
       </c>
       <c r="H38" t="n">
         <v>45.0314083649191</v>
       </c>
       <c r="I38" t="n">
-        <v>90.12281232189594</v>
+        <v>90.12281232189571</v>
       </c>
       <c r="J38" t="n">
-        <v>235.5632800350505</v>
+        <v>235.5632800350504</v>
       </c>
       <c r="K38" t="n">
         <v>461.7858488001439</v>
@@ -7189,7 +7189,7 @@
         <v>1402.614992443546</v>
       </c>
       <c r="O38" t="n">
-        <v>1712.141432054348</v>
+        <v>1712.141432054347</v>
       </c>
       <c r="P38" t="n">
         <v>1970.708674475314</v>
@@ -7201,25 +7201,25 @@
         <v>2251.570418245955</v>
       </c>
       <c r="S38" t="n">
-        <v>2251.570418245955</v>
+        <v>2195.023515714264</v>
       </c>
       <c r="T38" t="n">
-        <v>2039.831189109912</v>
+        <v>1983.284286578221</v>
       </c>
       <c r="U38" t="n">
-        <v>1781.644162595084</v>
+        <v>1725.097260063393</v>
       </c>
       <c r="V38" t="n">
-        <v>1781.644162595084</v>
+        <v>1367.607845189643</v>
       </c>
       <c r="W38" t="n">
-        <v>1781.644162595084</v>
+        <v>1150.54941024725</v>
       </c>
       <c r="X38" t="n">
-        <v>1725.273786315415</v>
+        <v>1150.54941024725</v>
       </c>
       <c r="Y38" t="n">
-        <v>1725.273786315415</v>
+        <v>1150.54941024725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>45.0314083649191</v>
       </c>
       <c r="I39" t="n">
-        <v>90.36710135749652</v>
+        <v>66.9097955130847</v>
       </c>
       <c r="J39" t="n">
-        <v>227.2855899853342</v>
+        <v>332.74109027024</v>
       </c>
       <c r="K39" t="n">
-        <v>382.8124064494443</v>
+        <v>488.2679067343502</v>
       </c>
       <c r="L39" t="n">
-        <v>599.464817324408</v>
+        <v>704.9203176093139</v>
       </c>
       <c r="M39" t="n">
-        <v>855.4334530594391</v>
+        <v>960.8889533443449</v>
       </c>
       <c r="N39" t="n">
-        <v>1120.518221722738</v>
+        <v>1225.973722007644</v>
       </c>
       <c r="O39" t="n">
-        <v>1359.408279816658</v>
+        <v>1464.863780101563</v>
       </c>
       <c r="P39" t="n">
-        <v>1547.996989092045</v>
+        <v>1653.452489376951</v>
       </c>
       <c r="Q39" t="n">
-        <v>1665.951677503471</v>
+        <v>1771.407177788377</v>
       </c>
       <c r="R39" t="n">
         <v>1816.296770038379</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>918.6209558268296</v>
+        <v>683.8440067552115</v>
       </c>
       <c r="C40" t="n">
-        <v>918.6209558268296</v>
+        <v>683.8440067552115</v>
       </c>
       <c r="D40" t="n">
-        <v>755.3041829536003</v>
+        <v>683.8440067552115</v>
       </c>
       <c r="E40" t="n">
-        <v>589.0959771064538</v>
+        <v>517.635800908065</v>
       </c>
       <c r="F40" t="n">
-        <v>417.2342028810143</v>
+        <v>345.7740266826254</v>
       </c>
       <c r="G40" t="n">
-        <v>251.9185642292811</v>
+        <v>180.4583880308923</v>
       </c>
       <c r="H40" t="n">
-        <v>116.4915845633079</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="I40" t="n">
         <v>45.0314083649191</v>
@@ -7335,16 +7335,16 @@
         <v>167.7504552094792</v>
       </c>
       <c r="K40" t="n">
-        <v>501.4672352720399</v>
+        <v>367.0537662817567</v>
       </c>
       <c r="L40" t="n">
-        <v>993.3218015604244</v>
+        <v>482.5194389789763</v>
       </c>
       <c r="M40" t="n">
-        <v>1115.593634927516</v>
+        <v>1018.326752808889</v>
       </c>
       <c r="N40" t="n">
-        <v>1236.234965347839</v>
+        <v>1537.001006071093</v>
       </c>
       <c r="O40" t="n">
         <v>1645.131924130308</v>
@@ -7362,22 +7362,22 @@
         <v>2093.127257668993</v>
       </c>
       <c r="T40" t="n">
-        <v>2093.127257668993</v>
+        <v>1853.809960762132</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.091491910741</v>
+        <v>1656.916614996993</v>
       </c>
       <c r="V40" t="n">
-        <v>1662.380024518769</v>
+        <v>1375.205147605022</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.527620691282</v>
+        <v>1100.352743777535</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.963724137088</v>
+        <v>1100.352743777535</v>
       </c>
       <c r="Y40" t="n">
-        <v>918.6209558268296</v>
+        <v>874.0099754672772</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.7826283254706</v>
+        <v>1420.002055122172</v>
       </c>
       <c r="C41" t="n">
-        <v>400.8818983387707</v>
+        <v>993.1013251354723</v>
       </c>
       <c r="D41" t="n">
-        <v>45.0314083649191</v>
+        <v>569.8087043204725</v>
       </c>
       <c r="E41" t="n">
-        <v>45.0314083649191</v>
+        <v>569.8087043204725</v>
       </c>
       <c r="F41" t="n">
-        <v>45.0314083649191</v>
+        <v>144.6845225098727</v>
       </c>
       <c r="G41" t="n">
-        <v>45.0314083649191</v>
+        <v>144.6845225098727</v>
       </c>
       <c r="H41" t="n">
         <v>45.0314083649191</v>
@@ -7444,19 +7444,19 @@
         <v>2251.570418245955</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.383391731127</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="V41" t="n">
-        <v>1635.893976857376</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="W41" t="n">
-        <v>1239.502627157723</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="X41" t="n">
-        <v>827.7826283254706</v>
+        <v>1839.850419413702</v>
       </c>
       <c r="Y41" t="n">
-        <v>827.7826283254706</v>
+        <v>1839.850419413702</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>45.0314083649191</v>
       </c>
       <c r="I42" t="n">
-        <v>66.9097955130847</v>
+        <v>90.36710135749652</v>
       </c>
       <c r="J42" t="n">
-        <v>150.4752415855774</v>
+        <v>227.2855899853342</v>
       </c>
       <c r="K42" t="n">
-        <v>306.0020580496875</v>
+        <v>382.8124064494443</v>
       </c>
       <c r="L42" t="n">
-        <v>522.6544689246513</v>
+        <v>599.464817324408</v>
       </c>
       <c r="M42" t="n">
-        <v>778.6231046596823</v>
+        <v>855.4334530594391</v>
       </c>
       <c r="N42" t="n">
-        <v>1043.707873322982</v>
+        <v>1120.518221722738</v>
       </c>
       <c r="O42" t="n">
-        <v>1282.597931416901</v>
+        <v>1359.408279816658</v>
       </c>
       <c r="P42" t="n">
-        <v>1471.186640692288</v>
+        <v>1547.996989092045</v>
       </c>
       <c r="Q42" t="n">
-        <v>1771.407177788377</v>
+        <v>1665.951677503471</v>
       </c>
       <c r="R42" t="n">
         <v>1816.296770038379</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>855.8165698762955</v>
+        <v>511.7705672722308</v>
       </c>
       <c r="C43" t="n">
-        <v>683.8440067552115</v>
+        <v>339.7980041511469</v>
       </c>
       <c r="D43" t="n">
-        <v>683.8440067552115</v>
+        <v>251.9185642292811</v>
       </c>
       <c r="E43" t="n">
-        <v>517.635800908065</v>
+        <v>251.9185642292811</v>
       </c>
       <c r="F43" t="n">
-        <v>345.7740266826254</v>
+        <v>251.9185642292811</v>
       </c>
       <c r="G43" t="n">
-        <v>180.4583880308923</v>
+        <v>251.9185642292811</v>
       </c>
       <c r="H43" t="n">
-        <v>45.0314083649191</v>
+        <v>116.4915845633079</v>
       </c>
       <c r="I43" t="n">
         <v>45.0314083649191</v>
       </c>
       <c r="J43" t="n">
-        <v>89.82873856125835</v>
+        <v>167.7504552094792</v>
       </c>
       <c r="K43" t="n">
-        <v>176.2629095097969</v>
+        <v>302.1076465518611</v>
       </c>
       <c r="L43" t="n">
-        <v>668.1174757981814</v>
+        <v>417.5733192490807</v>
       </c>
       <c r="M43" t="n">
-        <v>1203.924789628094</v>
+        <v>953.3806330789937</v>
       </c>
       <c r="N43" t="n">
-        <v>1623.428383719096</v>
+        <v>1472.054886341198</v>
       </c>
       <c r="O43" t="n">
-        <v>2109.261626081515</v>
+        <v>1957.888128703616</v>
       </c>
       <c r="P43" t="n">
-        <v>2198.688736365151</v>
+        <v>2047.315238987252</v>
       </c>
       <c r="Q43" t="n">
         <v>2251.570418245955</v>
       </c>
       <c r="R43" t="n">
-        <v>2251.570418245955</v>
+        <v>2246.857472144544</v>
       </c>
       <c r="S43" t="n">
-        <v>2097.840203770404</v>
+        <v>2246.857472144544</v>
       </c>
       <c r="T43" t="n">
-        <v>1858.522906863543</v>
+        <v>2007.540175237683</v>
       </c>
       <c r="U43" t="n">
-        <v>1858.522906863543</v>
+        <v>1727.407072068208</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.741607280301</v>
+        <v>1445.695604676236</v>
       </c>
       <c r="W43" t="n">
-        <v>1514.889203452814</v>
+        <v>1170.843200848749</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.325306898619</v>
+        <v>928.2793042945544</v>
       </c>
       <c r="Y43" t="n">
-        <v>1045.982538588361</v>
+        <v>701.9365359842965</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1993.383391731127</v>
+        <v>1746.325880829361</v>
       </c>
       <c r="C44" t="n">
-        <v>1566.482661744427</v>
+        <v>1319.425150842661</v>
       </c>
       <c r="D44" t="n">
-        <v>1566.482661744427</v>
+        <v>896.1325300276613</v>
       </c>
       <c r="E44" t="n">
-        <v>1140.505721892285</v>
+        <v>470.1555901755189</v>
       </c>
       <c r="F44" t="n">
-        <v>715.381540081685</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="G44" t="n">
-        <v>313.1410137806308</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="H44" t="n">
         <v>45.0314083649191</v>
       </c>
       <c r="I44" t="n">
-        <v>90.12281232189602</v>
+        <v>90.12281232189594</v>
       </c>
       <c r="J44" t="n">
-        <v>235.5632800350506</v>
+        <v>235.5632800350505</v>
       </c>
       <c r="K44" t="n">
-        <v>461.785848800144</v>
+        <v>461.7858488001439</v>
       </c>
       <c r="L44" t="n">
         <v>748.4314856230537</v>
       </c>
       <c r="M44" t="n">
-        <v>1072.526270874503</v>
+        <v>1072.526270874502</v>
       </c>
       <c r="N44" t="n">
         <v>1402.614992443546</v>
       </c>
       <c r="O44" t="n">
-        <v>1712.141432054347</v>
+        <v>1712.141432054348</v>
       </c>
       <c r="P44" t="n">
         <v>1970.708674475314</v>
@@ -7678,22 +7678,22 @@
         <v>2251.570418245955</v>
       </c>
       <c r="T44" t="n">
-        <v>2251.570418245955</v>
+        <v>2039.831189109912</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.383391731127</v>
+        <v>1781.644162595084</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.383391731127</v>
+        <v>1781.644162595084</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.383391731127</v>
+        <v>1781.644162595084</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.383391731127</v>
+        <v>1781.644162595084</v>
       </c>
       <c r="Y44" t="n">
-        <v>1993.383391731127</v>
+        <v>1746.325880829361</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>45.0314083649191</v>
       </c>
       <c r="I45" t="n">
-        <v>66.9097955130847</v>
+        <v>90.36710135749652</v>
       </c>
       <c r="J45" t="n">
-        <v>150.4752415855774</v>
+        <v>227.2855899853342</v>
       </c>
       <c r="K45" t="n">
-        <v>306.0020580496875</v>
+        <v>382.8124064494443</v>
       </c>
       <c r="L45" t="n">
-        <v>522.6544689246513</v>
+        <v>599.464817324408</v>
       </c>
       <c r="M45" t="n">
-        <v>778.6231046596823</v>
+        <v>855.4334530594391</v>
       </c>
       <c r="N45" t="n">
-        <v>1043.707873322982</v>
+        <v>1120.518221722738</v>
       </c>
       <c r="O45" t="n">
-        <v>1282.597931416901</v>
+        <v>1359.408279816658</v>
       </c>
       <c r="P45" t="n">
-        <v>1653.452489376951</v>
+        <v>1547.996989092045</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.407177788377</v>
+        <v>1665.951677503471</v>
       </c>
       <c r="R45" t="n">
         <v>1816.296770038379</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.593518947913</v>
+        <v>706.6494820857075</v>
       </c>
       <c r="C46" t="n">
-        <v>918.6209558268296</v>
+        <v>534.6769189646235</v>
       </c>
       <c r="D46" t="n">
-        <v>755.3041829536003</v>
+        <v>371.3601460913942</v>
       </c>
       <c r="E46" t="n">
-        <v>589.0959771064538</v>
+        <v>371.3601460913942</v>
       </c>
       <c r="F46" t="n">
-        <v>417.2342028810143</v>
+        <v>199.4983718659546</v>
       </c>
       <c r="G46" t="n">
-        <v>251.9185642292811</v>
+        <v>180.4583880308923</v>
       </c>
       <c r="H46" t="n">
-        <v>116.4915845633079</v>
+        <v>45.0314083649191</v>
       </c>
       <c r="I46" t="n">
         <v>45.0314083649191</v>
@@ -7809,19 +7809,19 @@
         <v>167.7504552094792</v>
       </c>
       <c r="K46" t="n">
-        <v>501.4672352720399</v>
+        <v>254.1846261580178</v>
       </c>
       <c r="L46" t="n">
-        <v>993.3218015604244</v>
+        <v>417.5733192490807</v>
       </c>
       <c r="M46" t="n">
-        <v>1115.593634927516</v>
+        <v>953.3806330789937</v>
       </c>
       <c r="N46" t="n">
-        <v>1236.234965347839</v>
+        <v>1472.054886341198</v>
       </c>
       <c r="O46" t="n">
-        <v>1722.068207710258</v>
+        <v>1957.888128703616</v>
       </c>
       <c r="P46" t="n">
         <v>2047.315238987252</v>
@@ -7830,28 +7830,28 @@
         <v>2251.570418245955</v>
       </c>
       <c r="R46" t="n">
-        <v>2246.857472144544</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="S46" t="n">
-        <v>2093.127257668993</v>
+        <v>2251.570418245955</v>
       </c>
       <c r="T46" t="n">
-        <v>2093.127257668993</v>
+        <v>2012.253121339094</v>
       </c>
       <c r="U46" t="n">
-        <v>1812.994154499517</v>
+        <v>1732.120018169619</v>
       </c>
       <c r="V46" t="n">
-        <v>1781.954659797724</v>
+        <v>1450.408550777647</v>
       </c>
       <c r="W46" t="n">
-        <v>1507.102255970237</v>
+        <v>1175.55614695016</v>
       </c>
       <c r="X46" t="n">
-        <v>1507.102255970237</v>
+        <v>932.9922503959655</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.759487659979</v>
+        <v>706.6494820857075</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.38142489180555</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K2" t="n">
-        <v>2.786362146091513</v>
+        <v>7.950735126724386</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.801056793866287</v>
       </c>
       <c r="P2" t="n">
         <v>0.2941343268911112</v>
@@ -8139,22 +8139,22 @@
         <v>12.41484263875958</v>
       </c>
       <c r="K4" t="n">
-        <v>15.2182768817473</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L4" t="n">
-        <v>4.629166113207063</v>
+        <v>12.72085475511482</v>
       </c>
       <c r="M4" t="n">
-        <v>4.345987427773778</v>
+        <v>12.43767606968154</v>
       </c>
       <c r="N4" t="n">
-        <v>11.0445927885535</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O4" t="n">
         <v>14.15339270323919</v>
       </c>
       <c r="P4" t="n">
-        <v>16.40738255644908</v>
+        <v>16.08044564162452</v>
       </c>
       <c r="Q4" t="n">
         <v>14.881611906857</v>
@@ -8218,7 +8218,7 @@
         <v>7.415995117306384</v>
       </c>
       <c r="K5" t="n">
-        <v>2.786362146091513</v>
+        <v>9.751791920590676</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>8.128025379424045</v>
       </c>
       <c r="R5" t="n">
-        <v>25.71263774232791</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.50653128066733</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K7" t="n">
         <v>15.54521379657186</v>
@@ -8385,13 +8385,13 @@
         <v>4.345987427773778</v>
       </c>
       <c r="N7" t="n">
-        <v>10.71765587372894</v>
+        <v>11.0445927885535</v>
       </c>
       <c r="O7" t="n">
         <v>14.15339270323919</v>
       </c>
       <c r="P7" t="n">
-        <v>8.315693914541322</v>
+        <v>16.08044564162452</v>
       </c>
       <c r="Q7" t="n">
         <v>14.881611906857</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.77286693432814</v>
+        <v>28.99117420462826</v>
       </c>
       <c r="K10" t="n">
         <v>22.97356194757786</v>
       </c>
       <c r="L10" t="n">
-        <v>19.39461615446363</v>
+        <v>1.176308884163518</v>
       </c>
       <c r="M10" t="n">
-        <v>18.92374087635457</v>
+        <v>0.7054336060544557</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>16.8811286050267</v>
       </c>
       <c r="O10" t="n">
         <v>2.779019446119921</v>
@@ -8631,7 +8631,7 @@
         <v>5.506790124936622</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.8180011247784</v>
+        <v>31.15517979005181</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>113.8815976201635</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>358.0675224703016</v>
+        <v>176.896097393909</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362448</v>
+        <v>164.3028390962583</v>
       </c>
       <c r="M13" t="n">
-        <v>295.1252954736067</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>31.05513858936263</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.0675224703016</v>
+        <v>176.8960973939083</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M16" t="n">
-        <v>45.34488222711981</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>147.0591694040182</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>242.0634916556459</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,22 +9327,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.07953346156654</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>147.8754625841162</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>70.37539003541784</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>200.590345721597</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
-        <v>124.0536869222923</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>184.1069178632955</v>
+        <v>53.89196217711611</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>302.4773838497122</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>266.2822766177746</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>184.1069178632956</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>160.4126695356068</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>280.0184186060231</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,7 +10047,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>202.6363115997777</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>77.58621050480482</v>
+        <v>184.1069178632956</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>31.56470304846334</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>216.3392845885283</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>280.0184186060231</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10521,10 +10521,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>31.56470304846377</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>280.0184186060231</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>38.99399761447511</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>53.89196217711611</v>
+        <v>184.1069178632955</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>114.0092324482212</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>303.8040815386402</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>53.89196217711611</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>184.1069178632956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>48.40709130691246</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>301.8810744148263</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>53.89196217711611</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.1069178632956</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>48.40709130691246</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>238.2019403973314</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.317728839503378</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>14.5400340449251</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>11.96895179818265</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>13.62548181171325</v>
       </c>
       <c r="F2" t="n">
         <v>12.78125135058598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03641654712531528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>7.558192006706967</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>16.33598742484682</v>
       </c>
       <c r="D5" t="n">
         <v>10.96800596494193</v>
       </c>
       <c r="E5" t="n">
-        <v>13.62548181171325</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>14.57720473050771</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.585037643152521</v>
+        <v>4.413415416532747</v>
       </c>
       <c r="D8" t="n">
         <v>0.8413873365495768</v>
       </c>
       <c r="E8" t="n">
-        <v>3.498863183320896</v>
+        <v>11.98875497684404</v>
       </c>
       <c r="F8" t="n">
-        <v>2.654632722193629</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.2926088098604</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23272,10 +23272,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.2489689694677</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>217.8550282726987</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>73.80605194956345</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>181.2070483028595</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>296.700164292863</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>128.9073711041199</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23670,7 +23670,7 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>12.91268831701299</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>245.1164589774464</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>101.0515534380132</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>34.82712396086197</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>5.945887981371726</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>306.4711776680768</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.5855492777674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>107.2385173561169</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>206.172185796918</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24214,16 +24214,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>210.2793674735333</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>273.6129781386308</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>55.98143350637423</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6218368446822</v>
       </c>
       <c r="U23" t="n">
         <v>255.6051562496797</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>336.6697577754107</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6624822652158</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.0727098693135</v>
@@ -24414,10 +24414,10 @@
         <v>4.665816640396777</v>
       </c>
       <c r="S25" t="n">
-        <v>152.1929123307954</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>29.63530145772151</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>165.7956193741643</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>398.2181210380436</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>273.6129781386308</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>55.98143350637423</v>
       </c>
       <c r="T26" t="n">
         <v>209.6218368446822</v>
@@ -24502,16 +24502,16 @@
         <v>255.6051562496797</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>246.1498648852417</v>
       </c>
       <c r="W26" t="n">
-        <v>204.0539585430428</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.5399422915834</v>
+        <v>163.6624822652158</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.0727098693135</v>
       </c>
       <c r="I28" t="n">
         <v>70.74557443640489</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.665816640396777</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>25.85132234521772</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>143.4268204033472</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>55.98143350637423</v>
       </c>
       <c r="T29" t="n">
         <v>209.6218368446822</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6051562496797</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>296.9082390477369</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6624822652158</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.0727098693135</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.1929123307954</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9241239377921</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>190.5683184173997</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>214.5175756441082</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>398.6926035894998</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2181210380436</v>
       </c>
       <c r="H32" t="n">
-        <v>273.6129781386308</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>55.98143350637423</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6218368446822</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.6051562496797</v>
       </c>
       <c r="V32" t="n">
-        <v>251.9405497206285</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>134.0727098693135</v>
       </c>
       <c r="I34" t="n">
-        <v>70.74557443640489</v>
+        <v>37.0636799431426</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>4.665816640396777</v>
       </c>
       <c r="S34" t="n">
-        <v>25.85132234521772</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>80.88208114242792</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.2181210380436</v>
@@ -25210,16 +25210,16 @@
         <v>209.6218368446822</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6051562496797</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>261.3252275265151</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.6624822652158</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.0727098693135</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>70.74557443640489</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.665816640396777</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.85132234521772</v>
+        <v>152.1929123307954</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>238.2357608803781</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>273.6129781386308</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>55.98143350637423</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>177.5395856096875</v>
       </c>
       <c r="X38" t="n">
-        <v>351.7961263270579</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>70.74557443640489</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.9241239377921</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>129.786364037111</v>
+        <v>82.4073598302933</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>66.76770953273666</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.2181210380436</v>
       </c>
       <c r="H41" t="n">
-        <v>273.6129781386308</v>
+        <v>174.9563951351266</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>209.6218368446822</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6051562496797</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>74.6829596218499</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.6624822652158</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.74557443640489</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.665816640396777</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.1929123307954</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3317721377809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>210.8008661306415</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2181210380436</v>
       </c>
       <c r="H44" t="n">
-        <v>8.184468777076177</v>
+        <v>273.6129781386308</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>55.98143350637423</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6218368446822</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>366.3187983965923</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>144.8128982685041</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>70.74557443640489</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.665816640396777</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.1929123307954</v>
       </c>
       <c r="T46" t="n">
-        <v>236.9241239377921</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>248.165252963276</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>381103.0493659765</v>
+        <v>381103.0493659764</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>381103.0493659764</v>
+        <v>381103.0493659763</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>381103.0493659764</v>
+        <v>381103.0493659763</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>429801.8699209282</v>
+        <v>429801.8699209283</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>429801.8699209283</v>
+        <v>429801.8699209282</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429801.8699209283</v>
+        <v>429801.8699209282</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>429801.8699209283</v>
+        <v>429801.8699209282</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429801.8699209282</v>
+        <v>429801.8699209281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429801.8699209284</v>
+        <v>429801.8699209282</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429801.8699209281</v>
+        <v>429801.8699209284</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>345766.4791572549</v>
       </c>
       <c r="D2" t="n">
-        <v>347645.156875475</v>
+        <v>347645.1568754752</v>
       </c>
       <c r="E2" t="n">
         <v>184523.1391850203</v>
       </c>
       <c r="F2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="G2" t="n">
         <v>184523.1391850204</v>
@@ -26343,16 +26343,16 @@
         <v>211802.7706622527</v>
       </c>
       <c r="L2" t="n">
-        <v>211802.7706622528</v>
+        <v>211802.7706622527</v>
       </c>
       <c r="M2" t="n">
-        <v>211802.7706622528</v>
+        <v>211802.7706622527</v>
       </c>
       <c r="N2" t="n">
         <v>211802.7706622527</v>
       </c>
       <c r="O2" t="n">
-        <v>211802.7706622527</v>
+        <v>211802.7706622528</v>
       </c>
       <c r="P2" t="n">
         <v>211802.7706622527</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64854.86355592436</v>
+        <v>64854.86355592435</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>14175.44636220903</v>
       </c>
       <c r="E3" t="n">
-        <v>413455.7303795687</v>
+        <v>413455.7303795689</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>94247.21939740988</v>
+        <v>94247.21939740985</v>
       </c>
       <c r="J3" t="n">
-        <v>2117.141783023297</v>
+        <v>2117.141783023356</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2562.956035278447</v>
+        <v>2562.956035278453</v>
       </c>
       <c r="M3" t="n">
         <v>108461.996097508</v>
@@ -26420,19 +26420,19 @@
         <v>306786.0371013506</v>
       </c>
       <c r="C4" t="n">
-        <v>306786.0371013507</v>
+        <v>306786.0371013506</v>
       </c>
       <c r="D4" t="n">
         <v>304069.7234672176</v>
       </c>
       <c r="E4" t="n">
-        <v>27826.91091608833</v>
+        <v>27826.91091608834</v>
       </c>
       <c r="F4" t="n">
-        <v>27826.91091608835</v>
+        <v>27826.91091608832</v>
       </c>
       <c r="G4" t="n">
-        <v>27826.91091608835</v>
+        <v>27826.91091608834</v>
       </c>
       <c r="H4" t="n">
         <v>27826.91091608832</v>
@@ -26444,7 +26444,7 @@
         <v>24306.709625487</v>
       </c>
       <c r="K4" t="n">
-        <v>24306.70962548701</v>
+        <v>24306.709625487</v>
       </c>
       <c r="L4" t="n">
         <v>24306.709625487</v>
@@ -26453,10 +26453,10 @@
         <v>24306.709625487</v>
       </c>
       <c r="N4" t="n">
-        <v>24306.709625487</v>
+        <v>24306.70962548701</v>
       </c>
       <c r="O4" t="n">
-        <v>24306.709625487</v>
+        <v>24306.70962548701</v>
       </c>
       <c r="P4" t="n">
         <v>24306.70962548701</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61399.87251847343</v>
+        <v>-61415.28552534611</v>
       </c>
       <c r="C6" t="n">
-        <v>3454.991037450847</v>
+        <v>3439.578030578219</v>
       </c>
       <c r="D6" t="n">
-        <v>-7021.926084606661</v>
+        <v>-7029.51126765319</v>
       </c>
       <c r="E6" t="n">
-        <v>-293708.8029236783</v>
+        <v>-294396.0631804354</v>
       </c>
       <c r="F6" t="n">
-        <v>119746.9274558904</v>
+        <v>119059.6671991335</v>
       </c>
       <c r="G6" t="n">
-        <v>119746.9274558905</v>
+        <v>119059.6671991335</v>
       </c>
       <c r="H6" t="n">
-        <v>119746.9274558906</v>
+        <v>119059.6671991335</v>
       </c>
       <c r="I6" t="n">
-        <v>47758.93296111893</v>
+        <v>47185.33783551704</v>
       </c>
       <c r="J6" t="n">
-        <v>139889.0105755055</v>
+        <v>139315.4154499036</v>
       </c>
       <c r="K6" t="n">
-        <v>142006.1523585288</v>
+        <v>141432.5572329269</v>
       </c>
       <c r="L6" t="n">
-        <v>139443.1963232504</v>
+        <v>138869.6011976485</v>
       </c>
       <c r="M6" t="n">
-        <v>33544.15626102089</v>
+        <v>32970.56113541892</v>
       </c>
       <c r="N6" t="n">
-        <v>142006.1523585288</v>
+        <v>141432.5572329269</v>
       </c>
       <c r="O6" t="n">
-        <v>142006.1523585288</v>
+        <v>141432.5572329269</v>
       </c>
       <c r="P6" t="n">
-        <v>142006.1523585288</v>
+        <v>141432.5572329269</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>77.36880956975662</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
@@ -26798,31 +26798,31 @@
         <v>18.21830727030011</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="I4" t="n">
+        <v>562.8926045614886</v>
+      </c>
+      <c r="J4" t="n">
         <v>562.8926045614887</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>562.8926045614886</v>
-      </c>
-      <c r="K4" t="n">
-        <v>562.8926045614887</v>
       </c>
       <c r="L4" t="n">
         <v>562.8926045614887</v>
       </c>
       <c r="M4" t="n">
-        <v>562.8926045614887</v>
+        <v>562.8926045614886</v>
       </c>
       <c r="N4" t="n">
         <v>562.8926045614887</v>
@@ -26968,7 +26968,7 @@
         <v>12.87906878877682</v>
       </c>
       <c r="E3" t="n">
-        <v>352.8795662771894</v>
+        <v>352.8795662771895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>10.12661862839235</v>
       </c>
       <c r="E4" t="n">
-        <v>435.2337687096033</v>
+        <v>435.2337687096034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>109.4405285815852</v>
       </c>
       <c r="J4" t="n">
-        <v>8.091688641907695</v>
+        <v>8.091688641907922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.12661862839235</v>
+        <v>10.12661862839237</v>
       </c>
       <c r="M4" t="n">
-        <v>435.2337687096033</v>
+        <v>435.2337687096034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>10.12661862839235</v>
       </c>
       <c r="M4" t="n">
-        <v>435.2337687096033</v>
+        <v>435.2337687096034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>84.88283164060707</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H3" t="n">
         <v>51.50264919965579</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.80729794623124</v>
+        <v>69.84276866011584</v>
       </c>
       <c r="T3" t="n">
         <v>139.902022460603</v>
@@ -27520,7 +27520,7 @@
         <v>194.8317188302186</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>187.4290040393226</v>
       </c>
       <c r="X3" t="n">
         <v>161.8425727710037</v>
@@ -27548,13 +27548,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>163.0159971273928</v>
       </c>
       <c r="G4" t="n">
-        <v>164.4781070335314</v>
+        <v>156.3864183916236</v>
       </c>
       <c r="H4" t="n">
-        <v>133.2326668947932</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I4" t="n">
         <v>95.27363565084021</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>33.24758349020515</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S4" t="n">
-        <v>159.279868255557</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T4" t="n">
         <v>232.3173774877781</v>
@@ -27605,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>215.9876519852476</v>
       </c>
     </row>
     <row r="5">
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>119.5460506839543</v>
       </c>
       <c r="C6" t="n">
         <v>108.2391558057625</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>95.67439954407546</v>
       </c>
       <c r="E6" t="n">
-        <v>95.56322574788439</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>84.61768337201713</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>85.84736092672247</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H6" t="n">
         <v>51.50264919965579</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>130.2042711183328</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>181.1371496691526</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27788,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>156.3864183916236</v>
+        <v>164.4781070335314</v>
       </c>
       <c r="H7" t="n">
         <v>141.3243555367009</v>
@@ -27833,16 +27833,16 @@
         <v>277.3762607615072</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>270.8026640761436</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>232.0465689467452</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.952181271363</v>
+        <v>215.9876519852476</v>
       </c>
     </row>
     <row r="8">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258621</v>
+        <v>111.5910542821817</v>
       </c>
       <c r="C9" t="n">
-        <v>116.3308444476703</v>
+        <v>98.11253717737014</v>
       </c>
       <c r="D9" t="n">
-        <v>102.8015588998678</v>
+        <v>84.5832516295677</v>
       </c>
       <c r="E9" t="n">
         <v>103.6549143897921</v>
@@ -27988,13 +27988,13 @@
         <v>139.7903633642173</v>
       </c>
       <c r="U9" t="n">
-        <v>166.8628806594308</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V9" t="n">
-        <v>184.7051002018263</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
-        <v>176.3378561248149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
         <v>161.8425727710037</v>
@@ -28013,10 +28013,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>154.2061524461928</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>143.4652978741969</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.07670462854575</v>
+        <v>24.24832685516552</v>
       </c>
       <c r="S10" t="n">
         <v>166.0022870397414</v>
@@ -28073,10 +28073,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>253.885572518912</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>221.9199503183528</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -31141,10 +31141,10 @@
         <v>31.18846915423574</v>
       </c>
       <c r="N3" t="n">
-        <v>24.87861394041439</v>
+        <v>29.43471685544942</v>
       </c>
       <c r="O3" t="n">
-        <v>31.26357836412998</v>
+        <v>26.70747544909495</v>
       </c>
       <c r="P3" t="n">
         <v>26.48824843511603</v>
@@ -31381,10 +31381,10 @@
         <v>29.43471685544942</v>
       </c>
       <c r="O6" t="n">
-        <v>26.70747544909495</v>
+        <v>31.26357836412998</v>
       </c>
       <c r="P6" t="n">
-        <v>26.48824843511603</v>
+        <v>21.93214552008099</v>
       </c>
       <c r="Q6" t="n">
         <v>17.70669260084562</v>
@@ -31615,13 +31615,13 @@
         <v>41.31508778262809</v>
       </c>
       <c r="N9" t="n">
-        <v>39.56133548384177</v>
+        <v>30.74023446979464</v>
       </c>
       <c r="O9" t="n">
         <v>39.59458313896781</v>
       </c>
       <c r="P9" t="n">
-        <v>22.95704267508555</v>
+        <v>31.77814368913268</v>
       </c>
       <c r="Q9" t="n">
         <v>21.24284748790752</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>224.3521083815257</v>
       </c>
       <c r="R44" t="n">
-        <v>130.5039471993248</v>
+        <v>130.5039471993242</v>
       </c>
       <c r="S44" t="n">
         <v>47.34218767921676</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.965429774499164</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.164372980632873</v>
       </c>
       <c r="L2" t="n">
         <v>2.600378746450325</v>
@@ -34713,7 +34713,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="O2" t="n">
-        <v>6.290631848041471</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>8.091688641907758</v>
       </c>
       <c r="N3" t="n">
-        <v>3.535585726872722</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O3" t="n">
-        <v>8.091688641907758</v>
+        <v>3.535585726872726</v>
       </c>
       <c r="P3" t="n">
         <v>4.717407230287364</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.764751727083198</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="N4" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="P4" t="n">
-        <v>8.091688641907758</v>
+        <v>7.7647517270832</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.965429774499164</v>
       </c>
       <c r="L5" t="n">
         <v>2.600378746450325</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.965429774499166</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>8.091688641907758</v>
       </c>
       <c r="O6" t="n">
-        <v>3.535585726872726</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="P6" t="n">
-        <v>4.717407230287364</v>
+        <v>0.1613043152523296</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>8.091688641907758</v>
@@ -35105,13 +35105,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>7.7647517270832</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="O7" t="n">
         <v>8.091688641907758</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>7.7647517270832</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>18.21830727030011</v>
       </c>
       <c r="N9" t="n">
-        <v>18.21830727030011</v>
+        <v>9.397206256252973</v>
       </c>
       <c r="O9" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P9" t="n">
-        <v>1.186201470256887</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="K10" t="n">
         <v>18.21830727030011</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17.48221404725768</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>18.21830727030011</v>
-      </c>
-      <c r="M10" t="n">
-        <v>18.21830727030011</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.6010854422309855</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>16.8811286050267</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
@@ -35500,16 +35500,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2300641174525</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>453.4520759799035</v>
+        <v>272.2806509035109</v>
       </c>
       <c r="R12" t="n">
         <v>33.78553351613294</v>
@@ -35570,25 +35570,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799035</v>
+        <v>257.732963439917</v>
       </c>
       <c r="M13" t="n">
-        <v>394.1690809055453</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196758</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O13" t="n">
-        <v>87.16477557810536</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>158.0941543178879</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
         <v>178.4230816471201</v>
@@ -35740,16 +35740,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>453.4520759799035</v>
+        <v>272.2806509035101</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M16" t="n">
-        <v>144.3886676590584</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O16" t="n">
-        <v>87.16477557810536</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>213.8818311472799</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
@@ -35971,7 +35971,7 @@
         <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4520759799035</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
@@ -35983,7 +35983,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36047,22 +36047,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
         <v>99.0437854319386</v>
       </c>
       <c r="N19" t="n">
-        <v>137.0580244635341</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>219.3311273731423</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201446</v>
+        <v>15.69034674432573</v>
       </c>
       <c r="J21" t="n">
         <v>361.8756844398183</v>
@@ -36217,13 +36217,13 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>225.3229807893094</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>295.9748992311989</v>
       </c>
       <c r="R21" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M22" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
-        <v>211.2184625003977</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.09938095774302</v>
+        <v>45.79362928543175</v>
       </c>
       <c r="J24" t="n">
-        <v>268.5164593506619</v>
+        <v>138.3015036644825</v>
       </c>
       <c r="K24" t="n">
         <v>157.0977944081921</v>
@@ -36460,7 +36460,7 @@
         <v>119.1461499105314</v>
       </c>
       <c r="R24" t="n">
-        <v>45.34302247474889</v>
+        <v>151.8637298332396</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>337.0876566288492</v>
       </c>
       <c r="L25" t="n">
-        <v>116.6319926234541</v>
+        <v>419.1093764731662</v>
       </c>
       <c r="M25" t="n">
-        <v>541.2195089191041</v>
+        <v>123.5069023910013</v>
       </c>
       <c r="N25" t="n">
         <v>121.8599297174987</v>
       </c>
       <c r="O25" t="n">
-        <v>375.5054261725376</v>
+        <v>490.7406488509279</v>
       </c>
       <c r="P25" t="n">
         <v>406.2457725827717</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.09938095774302</v>
+        <v>45.79362928543175</v>
       </c>
       <c r="J27" t="n">
-        <v>268.5164593506619</v>
+        <v>84.40954148736634</v>
       </c>
       <c r="K27" t="n">
         <v>157.0977944081921</v>
@@ -36685,7 +36685,7 @@
         <v>258.5541775101324</v>
       </c>
       <c r="N27" t="n">
-        <v>267.7623925891912</v>
+        <v>428.175062124798</v>
       </c>
       <c r="O27" t="n">
         <v>241.3030889837568</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>123.9586331763233</v>
+        <v>45.24982848115074</v>
       </c>
       <c r="K28" t="n">
         <v>87.30724338236223</v>
       </c>
       <c r="L28" t="n">
-        <v>496.8227942306914</v>
+        <v>396.6504112294772</v>
       </c>
       <c r="M28" t="n">
         <v>541.2195089191041</v>
@@ -36767,7 +36767,7 @@
         <v>523.9133871335392</v>
       </c>
       <c r="O28" t="n">
-        <v>311.8594611545407</v>
+        <v>490.7406488509279</v>
       </c>
       <c r="P28" t="n">
         <v>90.33041442791549</v>
@@ -36910,7 +36910,7 @@
         <v>22.09938095774302</v>
       </c>
       <c r="J30" t="n">
-        <v>161.9957519921712</v>
+        <v>268.5164593506619</v>
       </c>
       <c r="K30" t="n">
         <v>157.0977944081921</v>
@@ -36934,7 +36934,7 @@
         <v>119.1461499105314</v>
       </c>
       <c r="R30" t="n">
-        <v>151.8637298332396</v>
+        <v>45.34302247474889</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>123.9586331763233</v>
+        <v>76.81453152961409</v>
       </c>
       <c r="K31" t="n">
         <v>337.0876566288492</v>
       </c>
       <c r="L31" t="n">
-        <v>332.9712772119823</v>
+        <v>496.8227942306914</v>
       </c>
       <c r="M31" t="n">
-        <v>123.5069023910013</v>
+        <v>541.2195089191041</v>
       </c>
       <c r="N31" t="n">
         <v>523.9133871335392</v>
       </c>
       <c r="O31" t="n">
-        <v>490.7406488509279</v>
+        <v>109.223149554763</v>
       </c>
       <c r="P31" t="n">
         <v>90.33041442791549</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.3183628875783</v>
+        <v>53.41584028363985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>45.24982848115074</v>
       </c>
       <c r="K34" t="n">
-        <v>87.30724338236223</v>
+        <v>337.0876566288492</v>
       </c>
       <c r="L34" t="n">
-        <v>396.6504112294772</v>
+        <v>496.8227942306914</v>
       </c>
       <c r="M34" t="n">
         <v>541.2195089191041</v>
@@ -37241,10 +37241,10 @@
         <v>523.9133871335392</v>
       </c>
       <c r="O34" t="n">
-        <v>490.7406488509279</v>
+        <v>109.223149554763</v>
       </c>
       <c r="P34" t="n">
-        <v>90.33041442791549</v>
+        <v>121.8951174763793</v>
       </c>
       <c r="Q34" t="n">
         <v>53.41584028363985</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.24982848115074</v>
+        <v>123.9586331763233</v>
       </c>
       <c r="K37" t="n">
-        <v>87.30724338236223</v>
+        <v>337.0876566288492</v>
       </c>
       <c r="L37" t="n">
-        <v>396.6504112294772</v>
+        <v>496.8227942306914</v>
       </c>
       <c r="M37" t="n">
         <v>541.2195089191041</v>
       </c>
       <c r="N37" t="n">
-        <v>523.9133871335392</v>
+        <v>160.8539273319738</v>
       </c>
       <c r="O37" t="n">
-        <v>490.7406488509279</v>
+        <v>109.223149554763</v>
       </c>
       <c r="P37" t="n">
-        <v>90.33041442791549</v>
+        <v>406.2457725827717</v>
       </c>
       <c r="Q37" t="n">
         <v>53.41584028363985</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>45.79362928543175</v>
+        <v>22.09938095774302</v>
       </c>
       <c r="J39" t="n">
-        <v>138.3015036644825</v>
+        <v>268.5164593506619</v>
       </c>
       <c r="K39" t="n">
         <v>157.0977944081921</v>
@@ -37645,7 +37645,7 @@
         <v>119.1461499105314</v>
       </c>
       <c r="R39" t="n">
-        <v>151.8637298332396</v>
+        <v>45.34302247474889</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,19 +37703,19 @@
         <v>123.9586331763233</v>
       </c>
       <c r="K40" t="n">
-        <v>337.0876566288492</v>
+        <v>201.3164758305834</v>
       </c>
       <c r="L40" t="n">
-        <v>496.8227942306914</v>
+        <v>116.6319926234541</v>
       </c>
       <c r="M40" t="n">
-        <v>123.5069023910013</v>
+        <v>541.2195089191041</v>
       </c>
       <c r="N40" t="n">
-        <v>121.8599297174987</v>
+        <v>523.9133871335392</v>
       </c>
       <c r="O40" t="n">
-        <v>413.0272310934031</v>
+        <v>109.223149554763</v>
       </c>
       <c r="P40" t="n">
         <v>406.2457725827717</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.09938095774302</v>
+        <v>45.79362928543175</v>
       </c>
       <c r="J42" t="n">
-        <v>84.40954148736634</v>
+        <v>138.3015036644825</v>
       </c>
       <c r="K42" t="n">
         <v>157.0977944081921</v>
@@ -37879,10 +37879,10 @@
         <v>190.4936457327147</v>
       </c>
       <c r="Q42" t="n">
-        <v>303.253067773827</v>
+        <v>119.1461499105314</v>
       </c>
       <c r="R42" t="n">
-        <v>45.34302247474889</v>
+        <v>151.8637298332396</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.24982848115074</v>
+        <v>123.9586331763233</v>
       </c>
       <c r="K43" t="n">
-        <v>87.30724338236223</v>
+        <v>135.7143346892747</v>
       </c>
       <c r="L43" t="n">
-        <v>496.8227942306914</v>
+        <v>116.6319926234541</v>
       </c>
       <c r="M43" t="n">
         <v>541.2195089191041</v>
       </c>
       <c r="N43" t="n">
-        <v>423.741004132325</v>
+        <v>523.9133871335392</v>
       </c>
       <c r="O43" t="n">
         <v>490.7406488509279</v>
@@ -37958,7 +37958,7 @@
         <v>90.33041442791549</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.41584028363985</v>
+        <v>206.3183628875783</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>188.2274337769277</v>
       </c>
       <c r="R44" t="n">
-        <v>95.47129730452833</v>
+        <v>95.47129730452772</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.09938095774302</v>
+        <v>45.79362928543175</v>
       </c>
       <c r="J45" t="n">
-        <v>84.40954148736634</v>
+        <v>138.3015036644825</v>
       </c>
       <c r="K45" t="n">
         <v>157.0977944081921</v>
@@ -38113,13 +38113,13 @@
         <v>241.3030889837568</v>
       </c>
       <c r="P45" t="n">
-        <v>374.6005635960103</v>
+        <v>190.4936457327147</v>
       </c>
       <c r="Q45" t="n">
         <v>119.1461499105314</v>
       </c>
       <c r="R45" t="n">
-        <v>45.34302247474889</v>
+        <v>151.8637298332396</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>123.9586331763233</v>
       </c>
       <c r="K46" t="n">
-        <v>337.0876566288492</v>
+        <v>87.30724338236223</v>
       </c>
       <c r="L46" t="n">
-        <v>496.8227942306914</v>
+        <v>165.0390839303665</v>
       </c>
       <c r="M46" t="n">
-        <v>123.5069023910013</v>
+        <v>541.2195089191041</v>
       </c>
       <c r="N46" t="n">
-        <v>121.8599297174987</v>
+        <v>523.9133871335392</v>
       </c>
       <c r="O46" t="n">
         <v>490.7406488509279</v>
       </c>
       <c r="P46" t="n">
-        <v>328.5323548252469</v>
+        <v>90.33041442791549</v>
       </c>
       <c r="Q46" t="n">
         <v>206.3183628875783</v>
